--- a/biology/Médecine/Herbert_Benson/Herbert_Benson.xlsx
+++ b/biology/Médecine/Herbert_Benson/Herbert_Benson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herbert Benson  (né le 24 avril 1935 à Yonkers et mort le 3 février 2022 à Boston)[1] est professeur de médecine à l'université de Harvard.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Herbert Benson  (né le 24 avril 1935 à Yonkers et mort le 3 février 2022 à Boston) est professeur de médecine à l'université de Harvard.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a fondé le Mind/Body Medical Institute à Harvard Medical School en 1988.
-Il a participé à un colloque Esprit-science qui s'est aussi tenu à Harvard en mars 1991, en relation avec le dialogue entre scientifiques et bouddhistes à l'initiative du 14e dalaï-lama ordinairement organisé par la fondation Mind and Life Institute[2].
-À la suite de sa rencontre avec le dalaï-lama qui visita Harvard pour la première fois en 1979[3], il a réalisé des études sur la pratique yogique du Toumo[4],[5]. Il a notamment invité Lobsang Tenzin pour l'examiner à Boston aux USA en 1985 accompagné d'un traducteur, Karma Guéleg[6].
+Il a participé à un colloque Esprit-science qui s'est aussi tenu à Harvard en mars 1991, en relation avec le dialogue entre scientifiques et bouddhistes à l'initiative du 14e dalaï-lama ordinairement organisé par la fondation Mind and Life Institute.
+À la suite de sa rencontre avec le dalaï-lama qui visita Harvard pour la première fois en 1979, il a réalisé des études sur la pratique yogique du Toumo,. Il a notamment invité Lobsang Tenzin pour l'examiner à Boston aux USA en 1985 accompagné d'un traducteur, Karma Guéleg.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Publications et études</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Herbert Benson; John W. Lehmann; M. S. Malhotra; Ralph F. Goldman; Jeffrey Hopkins; Mark D. Epstein, « Body temperature changes during the practice of g Tum-mo yoga », Nature, Nature Publishing Group, vol. 295, no 5846,‎ 21 janvier 1982, p. 234 (DOI doi:10.1038/295234a0, lire en ligne)
 MindScience - 1991
-EspritScience : Dialogue Orient-Occident avec Dalai Lama, Howard E. Gardner, Daniel Goleman, Robert A.F. Thurman, éd. Claire Lumière, 1993, 2e ed, 1999,  (ISBN 978-2-905998-28-6),  (ISBN 2905998288)[7]</t>
+EspritScience : Dialogue Orient-Occident avec Dalai Lama, Howard E. Gardner, Daniel Goleman, Robert A.F. Thurman, éd. Claire Lumière, 1993, 2e ed, 1999,  (ISBN 978-2-905998-28-6),  (ISBN 2905998288)</t>
         </is>
       </c>
     </row>
